--- a/results/mp/logistic/home-spam/confidence/126/stop-words-topk-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/home-spam/confidence/126/stop-words-topk-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,169 +43,187 @@
     <t>return</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>stopped</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>disappointing</t>
+  </si>
+  <si>
+    <t>useless</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>stopped</t>
-  </si>
-  <si>
-    <t>useless</t>
-  </si>
-  <si>
-    <t>waste</t>
+    <t>poorly</t>
+  </si>
+  <si>
+    <t>glasses</t>
+  </si>
+  <si>
+    <t>filters</t>
   </si>
   <si>
     <t>junk</t>
   </si>
   <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>filters</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
-    <t>poorly</t>
+    <t>thin</t>
   </si>
   <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>thin</t>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>returning</t>
+  </si>
+  <si>
+    <t>spray</t>
   </si>
   <si>
     <t>cracked</t>
   </si>
   <si>
-    <t>maybe</t>
+    <t>unless</t>
+  </si>
+  <si>
+    <t>send</t>
+  </si>
+  <si>
+    <t>seal</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>months</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>seal</t>
-  </si>
-  <si>
-    <t>spray</t>
-  </si>
-  <si>
-    <t>months</t>
+    <t>egg</t>
   </si>
   <si>
     <t>however</t>
   </si>
   <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>grind</t>
+  </si>
+  <si>
+    <t>iron</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
     <t>broken</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>grind</t>
-  </si>
-  <si>
     <t>plastic</t>
   </si>
   <si>
     <t>lid</t>
   </si>
   <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>filter</t>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>side</t>
+  </si>
+  <si>
+    <t>back</t>
   </si>
   <si>
     <t>received</t>
   </si>
   <si>
-    <t>iron</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>sharpe</t>
+    <t>okay</t>
   </si>
   <si>
     <t>worked</t>
   </si>
   <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
     <t>machine</t>
   </si>
   <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>hold</t>
+  </si>
+  <si>
     <t>work</t>
   </si>
   <si>
-    <t>fl</t>
-  </si>
-  <si>
     <t>hard</t>
   </si>
   <si>
-    <t>hold</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>way</t>
   </si>
   <si>
     <t>small</t>
   </si>
   <si>
-    <t>fit</t>
+    <t>item</t>
+  </si>
+  <si>
+    <t>product</t>
   </si>
   <si>
     <t>would</t>
   </si>
   <si>
-    <t>product</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>excellent</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>perfect</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>pleased</t>
-  </si>
-  <si>
     <t>perfectly</t>
-  </si>
-  <si>
-    <t>ze</t>
   </si>
   <si>
     <t>happy</t>
@@ -575,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -583,10 +601,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="J1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -644,13 +662,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9469026548672567</v>
+        <v>0.9646017699115044</v>
       </c>
       <c r="C3">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D3">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -662,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K3">
         <v>0.796875</v>
@@ -694,13 +712,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.92</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C4">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="D4">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -712,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="K4">
-        <v>0.7419354838709677</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="L4">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="M4">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -736,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -744,13 +762,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9191919191919192</v>
+        <v>0.9056603773584906</v>
       </c>
       <c r="C5">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="D5">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -762,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="K5">
-        <v>0.7391304347826086</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="L5">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="M5">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -786,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -794,13 +812,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8867924528301887</v>
+        <v>0.8813559322033898</v>
       </c>
       <c r="C6">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="D6">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -812,19 +830,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="K6">
-        <v>0.688135593220339</v>
+        <v>0.6983050847457627</v>
       </c>
       <c r="L6">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M6">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -836,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -844,13 +862,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.875</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="C7">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -862,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="K7">
         <v>0.5851393188854489</v>
@@ -894,13 +912,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8728813559322034</v>
+        <v>0.85</v>
       </c>
       <c r="C8">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="D8">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -912,19 +930,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="K8">
-        <v>0.5281385281385281</v>
+        <v>0.5194805194805194</v>
       </c>
       <c r="L8">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="M8">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -936,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>109</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -944,13 +962,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8269230769230769</v>
+        <v>0.84</v>
       </c>
       <c r="C9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -962,19 +980,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="K9">
-        <v>0.5194805194805194</v>
+        <v>0.4718614718614719</v>
       </c>
       <c r="L9">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="M9">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -986,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>37</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -994,13 +1012,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8148148148148148</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1015,7 +1033,7 @@
         <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="K10">
         <v>0.3157894736842105</v>
@@ -1044,38 +1062,38 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.75</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="C11">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>17</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11">
+        <v>0.1885714285714286</v>
+      </c>
+      <c r="L11">
         <v>33</v>
       </c>
-      <c r="D11">
+      <c r="M11">
         <v>33</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>11</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K11">
-        <v>0.2592592592592592</v>
-      </c>
-      <c r="L11">
-        <v>21</v>
-      </c>
-      <c r="M11">
-        <v>21</v>
-      </c>
       <c r="N11">
         <v>1</v>
       </c>
@@ -1086,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>60</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1094,13 +1112,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7351351351351352</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="C12">
-        <v>136</v>
+        <v>35</v>
       </c>
       <c r="D12">
-        <v>136</v>
+        <v>35</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1112,19 +1130,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="K12">
-        <v>0.2514285714285714</v>
+        <v>0.1717495987158908</v>
       </c>
       <c r="L12">
-        <v>44</v>
+        <v>214</v>
       </c>
       <c r="M12">
-        <v>44</v>
+        <v>214</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1136,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>131</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1144,13 +1162,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7241379310344828</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C13">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D13">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1162,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="K13">
-        <v>0.1757624398073836</v>
+        <v>0.0452054794520548</v>
       </c>
       <c r="L13">
-        <v>219</v>
+        <v>33</v>
       </c>
       <c r="M13">
-        <v>219</v>
+        <v>33</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1186,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1027</v>
+        <v>697</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1194,13 +1212,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7058823529411765</v>
+        <v>0.745945945945946</v>
       </c>
       <c r="C14">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="D14">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1212,31 +1230,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>20</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K14">
-        <v>0.04794520547945205</v>
-      </c>
-      <c r="L14">
-        <v>35</v>
-      </c>
-      <c r="M14">
-        <v>35</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>695</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1244,13 +1238,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6712328767123288</v>
+        <v>0.7123287671232876</v>
       </c>
       <c r="C15">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D15">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1262,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1270,13 +1264,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6470588235294118</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C16">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="D16">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1288,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1296,13 +1290,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6415094339622641</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="C17">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D17">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1314,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1322,13 +1316,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6074074074074074</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C18">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="D18">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1340,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>53</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1348,13 +1342,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5882352941176471</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C19">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D19">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1366,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1374,13 +1368,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5757575757575758</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D20">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1392,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1400,13 +1394,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5660377358490566</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="C21">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="D21">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1418,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1426,13 +1420,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5641025641025641</v>
+        <v>0.59375</v>
       </c>
       <c r="C22">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="D22">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1444,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1452,13 +1446,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5555555555555556</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="C23">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="D23">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1470,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1478,13 +1472,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5348837209302325</v>
+        <v>0.5581395348837209</v>
       </c>
       <c r="C24">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D24">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1496,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1504,13 +1498,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4820512820512821</v>
+        <v>0.5377358490566038</v>
       </c>
       <c r="C25">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="D25">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1522,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>101</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1530,13 +1524,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4788732394366197</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C26">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="D26">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1548,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>37</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1556,13 +1550,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4324324324324325</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="C27">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="D27">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1574,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>84</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1582,13 +1576,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4247787610619469</v>
+        <v>0.5</v>
       </c>
       <c r="C28">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D28">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1600,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1608,13 +1602,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4090909090909091</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="C29">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="D29">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1626,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>26</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1634,13 +1628,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4022988505747127</v>
+        <v>0.4647887323943662</v>
       </c>
       <c r="C30">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D30">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1652,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1660,13 +1654,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3365384615384616</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C31">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D31">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1678,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>69</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1686,13 +1680,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3333333333333333</v>
+        <v>0.4318181818181818</v>
       </c>
       <c r="C32">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D32">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1704,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1712,13 +1706,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3300970873786408</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C33">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D33">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1730,7 +1724,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>69</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1738,13 +1732,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3076923076923077</v>
+        <v>0.4252873563218391</v>
       </c>
       <c r="C34">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D34">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1756,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1764,13 +1758,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2711864406779661</v>
+        <v>0.4</v>
       </c>
       <c r="C35">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D35">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1782,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1790,13 +1784,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2402234636871508</v>
+        <v>0.3918918918918919</v>
       </c>
       <c r="C36">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="D36">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1808,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>136</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1816,13 +1810,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2307692307692308</v>
+        <v>0.3893805309734513</v>
       </c>
       <c r="C37">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D37">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1834,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>120</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1842,13 +1836,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2272727272727273</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C38">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D38">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1860,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1868,13 +1862,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1958762886597938</v>
+        <v>0.3009708737864077</v>
       </c>
       <c r="C39">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D39">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1886,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1894,13 +1888,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1509433962264151</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="C40">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="D40">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1912,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>315</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1920,13 +1914,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.15</v>
+        <v>0.2756410256410257</v>
       </c>
       <c r="C41">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D41">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1938,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>85</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1946,13 +1940,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1238095238095238</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="C42">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D42">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1964,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>184</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1972,13 +1966,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.103448275862069</v>
+        <v>0.2575757575757576</v>
       </c>
       <c r="C43">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D43">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1990,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>130</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1998,13 +1992,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09677419354838709</v>
+        <v>0.2458100558659218</v>
       </c>
       <c r="C44">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="D44">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2016,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>168</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2024,13 +2018,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.09523809523809523</v>
+        <v>0.2371134020618557</v>
       </c>
       <c r="C45">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D45">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2042,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>266</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2050,13 +2044,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.075</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="C46">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D46">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2068,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>185</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2076,13 +2070,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.04217687074829932</v>
+        <v>0.145</v>
       </c>
       <c r="C47">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D47">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2094,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>704</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2102,25 +2096,207 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.0339425587467363</v>
+        <v>0.1448275862068966</v>
       </c>
       <c r="C48">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D48">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E48">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>740</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49">
+        <v>0.1347708894878706</v>
+      </c>
+      <c r="C49">
+        <v>50</v>
+      </c>
+      <c r="D49">
+        <v>50</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>0.119047619047619</v>
+      </c>
+      <c r="C50">
+        <v>25</v>
+      </c>
+      <c r="D50">
+        <v>25</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51">
+        <v>0.1059602649006623</v>
+      </c>
+      <c r="C51">
+        <v>16</v>
+      </c>
+      <c r="D51">
+        <v>16</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52">
+        <v>0.08503401360544217</v>
+      </c>
+      <c r="C52">
+        <v>25</v>
+      </c>
+      <c r="D52">
+        <v>25</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53">
+        <v>0.0568561872909699</v>
+      </c>
+      <c r="C53">
+        <v>17</v>
+      </c>
+      <c r="D53">
+        <v>17</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54">
+        <v>0.04967320261437908</v>
+      </c>
+      <c r="C54">
+        <v>38</v>
+      </c>
+      <c r="D54">
+        <v>40</v>
+      </c>
+      <c r="E54">
+        <v>0.05</v>
+      </c>
+      <c r="F54">
+        <v>0.95</v>
+      </c>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>0.0380952380952381</v>
+      </c>
+      <c r="C55">
+        <v>28</v>
+      </c>
+      <c r="D55">
+        <v>28</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>707</v>
       </c>
     </row>
   </sheetData>
